--- a/src/entrada.xlsx
+++ b/src/entrada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\OneDrive\Insper\2020.1\TransCal\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\OneDrive\Insper\2020.1\TransCal\TransCalMecSol\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65869B23-486B-4C56-82B1-A49392F8293A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943D7B3C-883F-4E45-B6D5-978009191075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,10 +548,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -572,6 +572,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -657,7 +658,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +884,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -897,12 +898,8 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>

--- a/src/entrada.xlsx
+++ b/src/entrada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roger\OneDrive\Insper\2020.1\TransCal\TransCalMecSol\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ffd36fd4028d465/Insper/2020.1/TransCal/TransCalMecSol/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943D7B3C-883F-4E45-B6D5-978009191075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{943D7B3C-883F-4E45-B6D5-978009191075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09D3FA71-273D-4CC0-8ADD-1CBD7D154CAB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,6 +172,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -548,20 +551,20 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -581,7 +584,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,15 +618,15 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>200000000000</v>
+        <v>210000000000</v>
       </c>
       <c r="D2" s="3">
-        <v>0.02</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7">
         <f>COUNT(A2:A1048576)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,18 +637,28 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>200000000000</v>
+        <v>210000000000</v>
       </c>
       <c r="D3" s="3">
-        <v>0.02</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>210000000000</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -658,7 +671,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,18 +702,24 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>50000</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-100</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
@@ -846,6 +865,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -853,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,22 +904,26 @@
       <c r="C2" s="2"/>
       <c r="D2" s="9">
         <f>COUNT(A2:A1048576)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
